--- a/SE/Project 1/Project Log.xlsx
+++ b/SE/Project 1/Project Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="7" r:id="rId1"/>
@@ -2282,12 +2282,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -2713,7 +2713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -3032,7 +3032,7 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
     </row>
-    <row r="25" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E25" s="83"/>
       <c r="G25" s="82" t="s">
         <v>183</v>
@@ -3050,7 +3050,7 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
         <v>185</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="N26" s="33"/>
     </row>
-    <row r="27" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
         <v>279</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="M27" s="105"/>
       <c r="N27" s="33"/>
     </row>
-    <row r="28" spans="3:17" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
       <c r="H28" s="84"/>
@@ -3123,7 +3123,7 @@
       <c r="L28" s="84"/>
       <c r="M28" s="84"/>
     </row>
-    <row r="29" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D29" s="18" t="s">
         <v>280</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="M29" s="105"/>
       <c r="N29" s="33"/>
     </row>
-    <row r="30" spans="3:17" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
       <c r="H30" s="84"/>
@@ -3163,7 +3163,7 @@
       <c r="L30" s="84"/>
       <c r="M30" s="84"/>
     </row>
-    <row r="31" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D31" s="18" t="s">
         <v>281</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="M31" s="105"/>
       <c r="N31" s="33"/>
     </row>
-    <row r="32" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="G32" s="81"/>
@@ -3205,7 +3205,7 @@
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
     </row>
-    <row r="33" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
         <v>172</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
     </row>
-    <row r="34" spans="3:14" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="104" t="s">
         <v>219</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
     </row>
-    <row r="35" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
@@ -3266,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
@@ -3706,115 +3706,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4235,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
@@ -4566,175 +4566,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="D103" s="33"/>
     </row>
-    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" s="53" t="s">
         <v>133</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="55" t="s">
         <v>145</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="22" t="s">
         <v>80</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>84</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" s="28" t="s">
         <v>45</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" s="28" t="s">
         <v>48</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" s="28" t="s">
         <v>130</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="28" t="s">
         <v>46</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="28" t="s">
         <v>49</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="28" t="s">
         <v>47</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="20" t="s">
         <v>54</v>
       </c>
@@ -6075,13 +6075,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="28"/>
     </row>
-    <row r="118" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="25"/>
     </row>
-    <row r="119" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="26"/>
     </row>
   </sheetData>
@@ -6199,7 +6199,7 @@
       <c r="P10" s="112"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="112"/>
@@ -6254,7 +6254,7 @@
       <c r="O14" s="112"/>
     </row>
     <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="114" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="112"/>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="18" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="116" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="112"/>
@@ -6315,7 +6315,7 @@
     <row r="19" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="115" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="112"/>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="20" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="115" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="112"/>
@@ -6404,7 +6404,7 @@
       <c r="P23" s="112"/>
       <c r="Q23" s="112"/>
     </row>
-    <row r="24" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="112" t="s">
@@ -6424,7 +6424,7 @@
       <c r="P24" s="112"/>
       <c r="Q24" s="112"/>
     </row>
-    <row r="25" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="112" t="s">
@@ -6444,9 +6444,9 @@
       <c r="P25" s="112"/>
       <c r="Q25" s="112"/>
     </row>
-    <row r="26" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="115" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="112"/>
@@ -6462,7 +6462,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="112" t="s">
@@ -6480,7 +6480,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -6496,7 +6496,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="30" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -6506,8 +6506,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C32" s="113" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="114" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="112"/>
@@ -6522,7 +6522,7 @@
       <c r="M32" s="112"/>
       <c r="N32" s="112"/>
     </row>
-    <row r="34" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="112" t="s">
         <v>22</v>
       </c>
@@ -6538,8 +6538,8 @@
       <c r="M34" s="112"/>
       <c r="N34" s="112"/>
     </row>
-    <row r="35" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C35" s="113" t="s">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="114" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="112"/>
@@ -6554,7 +6554,7 @@
       <c r="M35" s="112"/>
       <c r="N35" s="112"/>
     </row>
-    <row r="37" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="112" t="s">
         <v>24</v>
       </c>
@@ -6570,8 +6570,8 @@
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
     </row>
-    <row r="38" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C38" s="113" t="s">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="114" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="112"/>
@@ -6588,12 +6588,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B12:P12"/>
     <mergeCell ref="C34:N34"/>
     <mergeCell ref="C35:N35"/>
     <mergeCell ref="C37:N37"/>
@@ -6610,6 +6604,12 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B12:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
@@ -6751,7 +6751,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="18" t="s">
         <v>224</v>
       </c>
